--- a/Assets/DataTable/ObjectData.xlsx
+++ b/Assets/DataTable/ObjectData.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="207">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fence_End-Short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fence_End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,70 +644,351 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Object_Alpha_Cat_Black</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Cat_White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Fence_End</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Flowers_BlueLight</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Flowers_Pink</t>
+  </si>
+  <si>
+    <t>Object_Alpha_GarbageCan_Blue</t>
+  </si>
+  <si>
+    <t>Object_Alpha_GarbageCan_Red</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Lantern_Path</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Lantern_Small</t>
+  </si>
+  <si>
+    <t>Object_Alpha_PineTree_Bright</t>
+  </si>
+  <si>
+    <t>Object_Alpha_PineTree_Snow_1</t>
+  </si>
+  <si>
+    <t>Object_Alpha_PineTree_Snow_2</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Tree_Fruits_Plums</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Umbrella_Purple</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Umbrella_Red</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Fence_End-Short</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Flower_1x_Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Flower_1x_Purple</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Trunk</t>
+  </si>
+  <si>
+    <t>Object_Alpha_Trunk_x3</t>
+  </si>
+  <si>
+    <t>Cat_White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower_1x_Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower_1x_Purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flowers_Pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarbageCan_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella_Purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tree_Fruits_Plums</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Object_Alpha_Cat_Black</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Cat_White</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object_Alpha_Fence_End</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Flowers_BlueLight</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Flowers_Pink</t>
-  </si>
-  <si>
-    <t>Object_Alpha_GarbageCan_Blue</t>
-  </si>
-  <si>
-    <t>Object_Alpha_GarbageCan_Red</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Lantern_Path</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Lantern_Small</t>
-  </si>
-  <si>
-    <t>Object_Alpha_PineTree_Bright</t>
-  </si>
-  <si>
-    <t>Object_Alpha_PineTree_Snow_1</t>
-  </si>
-  <si>
-    <t>Object_Alpha_PineTree_Snow_2</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Tree_Fruits_Plums</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Umbrella_Purple</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Umbrella_Red</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Fence_End-Short</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Flower_1x_Orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object_Alpha_Flower_1x_Purple</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Trunk</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Trunk_x3</t>
+    <t>PineTree_Bright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_BalloonStand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalloonStand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalloonStand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_BalloonStand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_Black_O_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_White_O_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_White_O_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_Black_O_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower_1x_Orange</t>
+  </si>
+  <si>
+    <t>fence_End_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower_1x_Purple_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers_BlueLight_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageCan_Blue_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarbageCan_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern_Small_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern_Small_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk_x3_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella_Purple_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella_Purple_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balloonStand_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_End-Short_O_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_End_Short_O_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_End_O_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower_1x_Orange_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower_1x_Orange_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower_1x_Purple_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers_BlueLight_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers_Pink_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers_Pink_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageCan_Blue_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageCan_Red_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageCan_Red_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern_Path_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern_Path_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Bright_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Bright_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Snow_1_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Snow_1_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Snow_2_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineTree_Snow_2_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_Fruits_Plums_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Fruits_Plums_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk_x3_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella_Red_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella_Red_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balloonStand_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Fence_End_Vertical</t>
+  </si>
+  <si>
+    <t>Fence_End_Vertical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Fence_End_Vertical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_End_Vertical_O_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence_End_Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence_End_Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_End_Vertical_O_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence_End_Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence_End_Vertical</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1369,7 @@
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
@@ -1320,7 +1597,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1375,7 +1652,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1387,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
@@ -1396,7 +1673,7 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1407,7 +1684,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1419,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1428,7 +1705,7 @@
         <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1439,7 +1716,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1451,16 +1728,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1471,7 +1748,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1479,23 +1756,23 @@
       <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -1503,7 +1780,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1515,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1535,7 +1812,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1547,16 +1824,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1567,7 +1844,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1582,13 +1859,13 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1599,7 +1876,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1611,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1631,7 +1908,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1643,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1663,7 +1940,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1675,27 +1952,27 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1707,16 +1984,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1727,7 +2004,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1739,16 +2016,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1759,7 +2036,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1771,16 +2048,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1791,7 +2068,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1803,16 +2080,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -1823,7 +2100,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1835,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -1855,7 +2132,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1867,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -1887,7 +2164,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1896,19 +2173,19 @@
         <v>100</v>
       </c>
       <c r="D25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -1919,7 +2196,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1931,16 +2208,16 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -1951,7 +2228,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1960,19 +2237,19 @@
         <v>100</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -1983,7 +2260,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1995,21 +2272,85 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="H28" t="s">
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="I28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2023,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2040,9 +2381,23 @@
     <col min="14" max="15" width="18.25" customWidth="1"/>
     <col min="16" max="16" width="17.375" customWidth="1"/>
     <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="18.625" customWidth="1"/>
+    <col min="21" max="21" width="15.75" customWidth="1"/>
+    <col min="22" max="22" width="23.125" customWidth="1"/>
+    <col min="23" max="23" width="24.375" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="26.875" customWidth="1"/>
+    <col min="26" max="26" width="16.125" customWidth="1"/>
+    <col min="27" max="27" width="19.25" customWidth="1"/>
+    <col min="28" max="51" width="28.125" customWidth="1"/>
+    <col min="52" max="55" width="15.75" customWidth="1"/>
+    <col min="56" max="61" width="24.875" customWidth="1"/>
+    <col min="62" max="99" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2094,8 +2449,140 @@
       <c r="Q1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000000</v>
       </c>
@@ -2146,6 +2633,135 @@
       </c>
       <c r="Q2" t="s">
         <v>67</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
